--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2158.702910715795</v>
+        <v>429581.8792324433</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2158.702910715795</v>
+        <v>429581.8792324433</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85902.87118037022</v>
+        <v>5863859.680224163</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85902.87118037022</v>
+        <v>5863859.680224163</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419114248.511827</v>
+        <v>52586029.66501588</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15490.73426099017</v>
+        <v>1309402.535157522</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29426.8121614455</v>
+        <v>2347229.42809714</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43362.8900619008</v>
+        <v>3385056.321036758</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57572.11021102015</v>
+        <v>4421780.295162895</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71781.33036013949</v>
+        <v>5458504.269289033</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85990.55050925883</v>
+        <v>6495228.243415168</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100199.7706583782</v>
+        <v>7531952.217541298</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>114408.9908074975</v>
+        <v>8568676.191667428</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128806.0064812707</v>
+        <v>9560758.763245532</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143249.9074639457</v>
+        <v>10562170.7764398</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157693.8084466208</v>
+        <v>11563582.78963407</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>172137.7094292959</v>
+        <v>12564994.80282833</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186581.610411971</v>
+        <v>13566406.81602261</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>201039.892288142</v>
+        <v>14566440.68477807</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>215498.1741643134</v>
+        <v>15566474.55353354</v>
       </c>
     </row>
   </sheetData>
